--- a/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69F3C3C-F1C0-4A2D-9B4E-476EC833AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEC5D8B-6C4F-49DA-BE47-0D83624F2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A625A408-C611-42BB-8A67-690A792A8734}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECDB8C62-56C4-4163-A9BC-B64A669790B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>69,53%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>30,47%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>80,99%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>71,92%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +251,109 @@
     <t>74,72%</t>
   </si>
   <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C398E23F-7687-4BED-B4DC-DC9284900E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAAB29B-FA6E-4424-B257-AC6104D392CB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEC5D8B-6C4F-49DA-BE47-0D83624F2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC38D98-D4F7-4358-B5C4-FDD3EC508FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECDB8C62-56C4-4163-A9BC-B64A669790B5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{6C948803-7B40-4337-8621-BCF66D27C055}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Población según si no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAAB29B-FA6E-4424-B257-AC6104D392CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F374E03-DB08-4768-AE05-7D3BAC3B4DFA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>17364</v>
+        <v>23177</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>22954</v>
+        <v>18421</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>40319</v>
+        <v>41597</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>7609</v>
+        <v>6770</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>6900</v>
+        <v>7787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>14508</v>
+        <v>14557</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29947</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>52</v>
       </c>
-      <c r="D6" s="7">
-        <v>24973</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>58</v>
-      </c>
       <c r="I6" s="7">
-        <v>29854</v>
+        <v>26208</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>54827</v>
+        <v>56154</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>75876</v>
+        <v>58355</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="I7" s="7">
-        <v>58626</v>
+        <v>78805</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>134501</v>
+        <v>137160</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>17807</v>
+        <v>16219</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>16503</v>
+        <v>19040</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>34310</v>
+        <v>35259</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>74574</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>147</v>
       </c>
-      <c r="D9" s="7">
-        <v>93683</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
       <c r="I9" s="7">
-        <v>75129</v>
+        <v>97845</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>274</v>
       </c>
       <c r="N9" s="7">
-        <v>168811</v>
+        <v>172419</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>81425</v>
+        <v>59226</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>59287</v>
+        <v>83954</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>179</v>
       </c>
       <c r="N10" s="7">
-        <v>140711</v>
+        <v>143179</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>31786</v>
+        <v>25094</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>25836</v>
+        <v>33927</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>57623</v>
+        <v>59021</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>114</v>
+      </c>
+      <c r="D12" s="7">
+        <v>84320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>137</v>
       </c>
-      <c r="D12" s="7">
-        <v>113211</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>114</v>
-      </c>
       <c r="I12" s="7">
-        <v>85123</v>
+        <v>117881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>251</v>
       </c>
       <c r="N12" s="7">
-        <v>198334</v>
+        <v>202200</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1354,7 +1354,7 @@
         <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>104022</v>
+        <v>115919</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1369,7 +1369,7 @@
         <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>98111</v>
+        <v>107115</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>258</v>
       </c>
       <c r="N13" s="7">
-        <v>202133</v>
+        <v>223034</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>35188</v>
+        <v>26783</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>27797</v>
+        <v>37101</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>62985</v>
+        <v>63884</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1453,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>169</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142702</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>175</v>
       </c>
-      <c r="D15" s="7">
-        <v>139210</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>169</v>
-      </c>
       <c r="I15" s="7">
-        <v>125908</v>
+        <v>144216</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>344</v>
       </c>
       <c r="N15" s="7">
-        <v>265118</v>
+        <v>286918</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D16" s="7">
-        <v>278687</v>
+        <v>256677</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="I16" s="7">
-        <v>238977</v>
+        <v>288294</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>733</v>
       </c>
       <c r="N16" s="7">
-        <v>517663</v>
+        <v>544970</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>92390</v>
+        <v>74866</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I17" s="7">
-        <v>77037</v>
+        <v>97855</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>246</v>
       </c>
       <c r="N17" s="7">
-        <v>169427</v>
+        <v>172721</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>468</v>
+      </c>
+      <c r="D18" s="7">
+        <v>331543</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>511</v>
       </c>
-      <c r="D18" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>468</v>
-      </c>
       <c r="I18" s="7">
-        <v>316014</v>
+        <v>386149</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>979</v>
       </c>
       <c r="N18" s="7">
-        <v>687090</v>
+        <v>717691</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
